--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1731808.777050487</v>
+        <v>1827512.735907202</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324957</v>
+        <v>278692.0725916855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5875724.698434132</v>
+        <v>6200266.973396005</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +664,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>79.94465442204329</v>
       </c>
       <c r="F2" t="n">
-        <v>329.1970222945945</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -817,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>86.74331745121798</v>
+        <v>99.4476420004344</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -865,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>327.2813194716649</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>290.3430720920318</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>87.630028234249</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,16 +1113,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>99.18431098305165</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>320.7046441476144</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>53.33388379268013</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>279.7532013268253</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>59.14508352453451</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1530,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1591,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>15.57230972412453</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>194.3321012888059</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>175.4806411735902</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869773</v>
@@ -1622,10 +1624,10 @@
         <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314459</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1771,16 +1773,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>53.9004557069403</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170497</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1844,10 +1846,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884117</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1856,13 +1858,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,16 +1903,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>2.292363805516792</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2020,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>127.6561220736164</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,13 +2064,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2141,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>128.7778691150968</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>108.0570408708226</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2479,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>41.77118486549519</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>78.47678022721453</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>213.4278190159732</v>
       </c>
       <c r="U31" t="n">
-        <v>157.8824880649885</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>52.51170991984772</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -3241,7 +3243,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3250,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>209.985159478203</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3317,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3430,16 +3432,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>58.6618829326302</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>3.139541480022602</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>43.4889870101585</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.4289015982187</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>350.8203835716743</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3803,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170497</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>272.4165941670123</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932899</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4031,7 +4033,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4144,13 +4146,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583514189</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>5.990622819018972</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>888.1040799405455</v>
       </c>
       <c r="C2" t="n">
-        <v>1226.179759784392</v>
+        <v>459.5224056778138</v>
       </c>
       <c r="D2" t="n">
-        <v>797.5980855216599</v>
+        <v>427.6530248926624</v>
       </c>
       <c r="E2" t="n">
-        <v>767.8637447203591</v>
+        <v>346.9008487087803</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,28 +4330,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4364,16 +4366,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>914.6089660449918</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>910.3632463850493</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4406,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>874.0494664914149</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1294.102365436318</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1294.102365436318</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1294.102365436318</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P3" t="n">
-        <v>1294.102365436318</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q3" t="n">
         <v>1697.183430080417</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>864.9853452427376</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="C4" t="n">
-        <v>692.4236337259625</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="D4" t="n">
-        <v>692.4236337259625</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="E4" t="n">
         <v>604.8041211489747</v>
@@ -4486,22 +4488,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>958.7861344791625</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1378.455383704944</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4513,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1397.332608038895</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1110.377099909325</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1110.377099909325</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X4" t="n">
-        <v>864.9853452427376</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.9853452427376</v>
+        <v>705.2562847857771</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>484.0636759001415</v>
+        <v>1786.126818664106</v>
       </c>
       <c r="C5" t="n">
-        <v>449.9616071239689</v>
+        <v>1347.98434584753</v>
       </c>
       <c r="D5" t="n">
-        <v>418.0922263388175</v>
+        <v>912.0745610219742</v>
       </c>
       <c r="E5" t="n">
-        <v>388.3578855375167</v>
+        <v>478.2998161802693</v>
       </c>
       <c r="F5" t="n">
-        <v>364.5308599871285</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1733.888642131952</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>2520.804278925291</v>
       </c>
       <c r="X5" t="n">
-        <v>914.6089660449918</v>
+        <v>2505.702219545006</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.3228423446452</v>
+        <v>2212.426389149014</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>374.9907115556894</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>548.8324253914317</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="N6" t="n">
-        <v>1224.671464618085</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="O6" t="n">
-        <v>1644.724363562988</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="P6" t="n">
-        <v>1644.724363562988</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="Q6" t="n">
-        <v>1644.724363562988</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>800.3931741963595</v>
+        <v>900.9284236664082</v>
       </c>
       <c r="C7" t="n">
-        <v>800.3931741963595</v>
+        <v>728.3667121496331</v>
       </c>
       <c r="D7" t="n">
-        <v>634.5151813978822</v>
+        <v>562.4887193511559</v>
       </c>
       <c r="E7" t="n">
-        <v>464.7571776486195</v>
+        <v>392.7307156018932</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0501236103756</v>
+        <v>216.0236615636494</v>
       </c>
       <c r="G7" t="n">
-        <v>122.4588486362033</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>266.2978593068796</v>
       </c>
       <c r="L7" t="n">
-        <v>341.3779633559367</v>
+        <v>684.5077410748407</v>
       </c>
       <c r="M7" t="n">
-        <v>761.43086230084</v>
+        <v>1143.991608255754</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1586.250411413398</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.91966063918</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609522</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2275.739883052309</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1997.306882305414</v>
       </c>
       <c r="V7" t="n">
-        <v>992.2117929153466</v>
+        <v>1710.351374175845</v>
       </c>
       <c r="W7" t="n">
-        <v>992.2117929153466</v>
+        <v>1438.324969762136</v>
       </c>
       <c r="X7" t="n">
-        <v>992.2117929153466</v>
+        <v>1192.933215095549</v>
       </c>
       <c r="Y7" t="n">
-        <v>992.2117929153466</v>
+        <v>1092.747042385395</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1353.076515494037</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.974446717864</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>890.3927724551322</v>
+        <v>541.4653606347895</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>107.6906157930846</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1580.010651986078</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1580.010651986078</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1580.010651986078</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1580.010651986078</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.6507226398521</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>210.6507226398521</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>210.6507226398521</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1429.886162364244</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1147.307171125027</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W10" t="n">
-        <v>875.2807667113186</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>629.8890120447311</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>402.4693413588393</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2128.327794988707</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1690.18532217213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1254.275537346574</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>766.665599145141</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2677677684047</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162092</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2287.945556116525</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>3091.227809869395</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N11" t="n">
-        <v>3091.227809869395</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O11" t="n">
-        <v>3091.227809869395</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869395</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827989</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581046</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.228786764883</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3723.228786764883</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3723.228786764883</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3360.611836698709</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2955.756382109742</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2536.613918689053</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2128.327794988707</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861093</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.642193513063</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292246</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954085</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162092</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>76.13761321162092</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K12" t="n">
-        <v>76.13761321162092</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L12" t="n">
-        <v>797.174411196621</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M12" t="n">
-        <v>1739.37737469043</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N12" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O12" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P12" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q12" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1015.293599513877</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C13" t="n">
-        <v>842.7318879971018</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D13" t="n">
-        <v>676.8538951986245</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>507.0958914493617</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>330.3888374111179</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>164.7975624369456</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>164.7975624369456</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.243407243978</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.287899114408</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.2614947007</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1434.531888918756</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1207.112218232864</v>
+        <v>1034.697915286396</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1775.50419321927</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1775.50419321927</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1339.594408393714</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>905.8196635520094</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>477.9522339612171</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>76.55440258448097</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
-        <v>76.55440258448097</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645388</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>511.3923006645388</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L14" t="n">
-        <v>511.3923006645388</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M14" t="n">
-        <v>1453.595264158348</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N14" t="n">
-        <v>2395.798227652157</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O14" t="n">
-        <v>2395.798227652157</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P14" t="n">
-        <v>3224.108102485553</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827989</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581046</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581046</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3806.880660581046</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3547.658357898063</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3185.041407831889</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2780.185953242922</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.043489822233</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>1952.757366121886</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861093</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.642193513063</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292246</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954085</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382909</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1081.465657964015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1081.465657964015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1081.465657964015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1081.465657964015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1081.465657964015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>785.6314506292333</v>
+        <v>811.7546776883864</v>
       </c>
       <c r="C16" t="n">
-        <v>613.0697391124583</v>
+        <v>639.1929661716114</v>
       </c>
       <c r="D16" t="n">
-        <v>447.191746313981</v>
+        <v>473.3149733731341</v>
       </c>
       <c r="E16" t="n">
-        <v>277.4337425647182</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F16" t="n">
-        <v>100.7266885264744</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162092</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113118</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309241</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>2559.67908147157</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>2313.799635050026</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.243407243978</v>
+        <v>2035.366634303131</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.287899114408</v>
+        <v>1748.411126173561</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.2614947007</v>
+        <v>1476.384721759853</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.869740034112</v>
+        <v>1230.992967093265</v>
       </c>
       <c r="Y16" t="n">
-        <v>977.4500693482205</v>
+        <v>1003.573296407374</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5494,49 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>269.4112304877946</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1103.761522445973</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2178.821488698832</v>
+        <v>2412.031452783383</v>
       </c>
       <c r="M17" t="n">
-        <v>2178.821488698832</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="N17" t="n">
-        <v>3304.552472135279</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O17" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5674,49 +5676,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066033</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745643</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173578</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.50262887895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2568.557051026812</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2322.677604605267</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.244603858372</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1757.289095728803</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167951</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5756,37 +5758,37 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
@@ -5795,7 +5797,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5808,16 +5810,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5832,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>927.0677766831641</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C22" t="n">
-        <v>754.506065166389</v>
+        <v>884.5847208382039</v>
       </c>
       <c r="D22" t="n">
-        <v>588.6280723679117</v>
+        <v>718.7067280397266</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8700686186489</v>
+        <v>548.9487242904638</v>
       </c>
       <c r="F22" t="n">
-        <v>242.1630145804051</v>
+        <v>372.24167025222</v>
       </c>
       <c r="G22" t="n">
         <v>242.1630145804051</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2429.112734044803</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2150.679733297909</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1863.724225168339</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1591.697820754631</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1346.306066088043</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1118.886395402151</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="23">
@@ -5993,10 +5995,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6066,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1082.867562242341</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1082.867562242341</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1082.867562242341</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1082.867562242341</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2517.485965445823</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2239.052964698928</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="26">
@@ -6233,16 +6235,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4729.704604581732</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O26" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6312,13 +6314,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>3137.402081918264</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>4117.581748488571</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6546,16 +6548,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>945.7774352703902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>945.7774352703902</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>945.7774352703902</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>945.7774352703902</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6637,34 +6639,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309256</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173589</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.50262887896</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176957</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2322.677604605267</v>
       </c>
       <c r="U31" t="n">
-        <v>2132.904553083697</v>
+        <v>2044.244603858372</v>
       </c>
       <c r="V31" t="n">
-        <v>1845.949044954127</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1015.441008084184</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C34" t="n">
-        <v>842.8792965674086</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>560.572149076143</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>383.8650950378992</v>
       </c>
       <c r="G34" t="n">
         <v>330.8229638057298</v>
@@ -6889,19 +6891,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X34" t="n">
-        <v>1242.860678770075</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y34" t="n">
-        <v>1015.441008084184</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009655</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6935,52 +6937,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186841</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812565</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812565</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812565</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812565</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812565</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7199,25 +7201,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7250,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.416826573035</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C40" t="n">
-        <v>868.8551150562604</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D40" t="n">
-        <v>702.9771222577831</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2674.992180466348</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1233.235445292023</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2133.819155631053</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1695.676682814477</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1259.766897988921</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>905.4028741791493</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>477.5354445883571</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162092</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162092</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>259.814566801854</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1094.164858760032</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2036.367822253841</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M41" t="n">
-        <v>2036.367822253841</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N41" t="n">
-        <v>2036.367822253841</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>2978.57078574765</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>3806.880660581046</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3806.880660581046</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581046</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581046</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3586.813433454085</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3327.591130771101</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2964.974180704928</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2560.118726115961</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2560.118726115961</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2560.118726115961</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2649.81264409353</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C42" t="n">
-        <v>2543.356182930173</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D42" t="n">
-        <v>2448.265894076726</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E42" t="n">
-        <v>2354.145479403679</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F42" t="n">
-        <v>2270.761641019841</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G42" t="n">
-        <v>2185.376551286025</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H42" t="n">
-        <v>2143.640899102238</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I42" t="n">
-        <v>2169.704572262695</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J42" t="n">
-        <v>2494.262897228908</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K42" t="n">
-        <v>3148.968943854631</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L42" t="n">
-        <v>3148.968943854631</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M42" t="n">
-        <v>3148.968943854631</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N42" t="n">
-        <v>3148.968943854631</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O42" t="n">
-        <v>3148.968943854631</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P42" t="n">
-        <v>3148.968943854631</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q42" t="n">
-        <v>3689.707882486706</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R42" t="n">
-        <v>3806.880660581046</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S42" t="n">
-        <v>3743.425223029429</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T42" t="n">
-        <v>3613.246579360031</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U42" t="n">
-        <v>3436.910032359999</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V42" t="n">
-        <v>3237.792514421998</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W42" t="n">
-        <v>3052.469760155192</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X42" t="n">
-        <v>2897.602324394073</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y42" t="n">
-        <v>2771.116545173294</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>785.6314506292333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>613.0697391124583</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>447.191746313981</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>277.4337425647182</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>100.7266885264744</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2533.555854412417</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2287.676407990873</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2009.243407243978</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.287899114408</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1450.2614947007</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1204.869740034112</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>977.4500693482205</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1633.09229092537</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C44" t="n">
-        <v>1194.949818108793</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D44" t="n">
-        <v>1194.949818108793</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.55440258448091</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="L44" t="n">
-        <v>2262.917935035998</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M44" t="n">
-        <v>2262.917935035998</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="N44" t="n">
-        <v>2262.917935035998</v>
+        <v>2738.306477413004</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035998</v>
+        <v>3718.48614398331</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869395</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827989</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581046</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764883</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637922</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>3503.161559637922</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3140.544609571748</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>2735.689154982781</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>2316.546691562092</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y44" t="n">
-        <v>1908.260567861746</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861093</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.642193513063</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292246</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954085</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382909</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1066.535824598178</v>
+        <v>811.7546776883983</v>
       </c>
       <c r="C46" t="n">
-        <v>893.9741130814026</v>
+        <v>639.1929661716232</v>
       </c>
       <c r="D46" t="n">
-        <v>728.0961202829253</v>
+        <v>473.3149733731459</v>
       </c>
       <c r="E46" t="n">
-        <v>558.3381165336625</v>
+        <v>303.5569696238832</v>
       </c>
       <c r="F46" t="n">
-        <v>381.6310624954187</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>216.0397875212464</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309254</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173586</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173586</v>
       </c>
       <c r="S46" t="n">
-        <v>2533.555854412417</v>
+        <v>2559.679081471582</v>
       </c>
       <c r="T46" t="n">
-        <v>2287.676407990873</v>
+        <v>2313.799635050038</v>
       </c>
       <c r="U46" t="n">
-        <v>2009.243407243978</v>
+        <v>2035.366634303143</v>
       </c>
       <c r="V46" t="n">
-        <v>2003.192273083353</v>
+        <v>1748.411126173573</v>
       </c>
       <c r="W46" t="n">
-        <v>1731.165868669644</v>
+        <v>1476.384721759865</v>
       </c>
       <c r="X46" t="n">
-        <v>1485.774114003057</v>
+        <v>1230.992967093277</v>
       </c>
       <c r="Y46" t="n">
-        <v>1258.354443317165</v>
+        <v>1003.573296407385</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>52.98895607821112</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8134,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201043</v>
@@ -8152,7 +8154,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>152.0558298092333</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,19 +8227,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>624.8248713018634</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>175.597690743174</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>52.98895607821123</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,19 +8376,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>130.5917045986997</v>
       </c>
       <c r="L7" t="n">
-        <v>223.0854642319581</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,13 +8534,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,19 +8619,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>44.41372909529071</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,10 +8695,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452615</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>811.3962159119887</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8772,13 +8774,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>728.3199979646466</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>951.7201651452615</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>951.7201651452615</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>951.7201651452615</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.7964579216532</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>168.8387779969848</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>1050.67235666819</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,22 +9482,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9641,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9714,13 +9716,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>571.1719812251592</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9881,19 +9883,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="O26" t="n">
-        <v>216.3468123274661</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9960,16 +9962,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>453.4964435270858</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,19 +10196,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10896,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>687.6096162327044</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>327.8732572545618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>185.5322763537708</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452615</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452615</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>926.4397398113956</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>685.7606250949702</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>370.2919138687533</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>227.3655273957971</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>30.81337269022691</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>246.5559336064686</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.8153550780014</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>114.1599680048298</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627256</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>29.99283294136686</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>35.15749310933379</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>201.6494670918341</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>111.4236523045827</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>29.99283294135611</v>
       </c>
       <c r="U31" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>32.95267764171868</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>109.3985407791399</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>78.6166138216135</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>149.6199806130464</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>139.5921776627195</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.0953302292548</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>513193.3208781235</v>
+        <v>523761.9228975195</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>513193.3208781235</v>
+        <v>525664.8229357908</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>437716.249946988</v>
+        <v>541366.1916221672</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>437716.249946988</v>
+        <v>541366.1916221671</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>541366.1916221671</v>
+        <v>541366.1916221672</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>541366.1916221671</v>
+        <v>541366.1916221672</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>541366.1916221672</v>
+        <v>541366.1916221674</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>541366.1916221672</v>
+        <v>541366.1916221674</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>541366.1916221672</v>
+        <v>541366.1916221671</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>437716.2499469881</v>
+        <v>541366.1916221672</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>437716.2499469881</v>
+        <v>541366.1916221675</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455725.2219068472</v>
+        <v>455725.2219068471</v>
       </c>
       <c r="C2" t="n">
-        <v>455725.2219068472</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="D2" t="n">
         <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
-        <v>362087.6407144213</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="F2" t="n">
-        <v>362087.6407144214</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="G2" t="n">
         <v>447828.9465167495</v>
       </c>
       <c r="H2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167493</v>
       </c>
       <c r="I2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="J2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="K2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167497</v>
       </c>
       <c r="L2" t="n">
         <v>447828.9465167495</v>
       </c>
       <c r="M2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="N2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="O2" t="n">
-        <v>362087.6407144214</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="P2" t="n">
-        <v>362087.6407144213</v>
+        <v>447828.9465167497</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501611</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998282</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.2949221041</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636894</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877247</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622358</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574196</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,31 +26420,31 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.8987932459</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>54981.28828435788</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="F4" t="n">
-        <v>54981.28828435788</v>
+        <v>68000.69828933268</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933274</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933294</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933279</v>
@@ -26451,13 +26453,13 @@
         <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
+        <v>68000.69828933277</v>
+      </c>
+      <c r="O4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="P4" t="n">
         <v>68000.69828933282</v>
-      </c>
-      <c r="O4" t="n">
-        <v>54981.28828435791</v>
-      </c>
-      <c r="P4" t="n">
-        <v>54981.28828435791</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083189</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083189</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.5860408319</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.5860408319</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>54280.30686339929</v>
       </c>
       <c r="C6" t="n">
-        <v>196471.6075231092</v>
+        <v>153954.3414105827</v>
       </c>
       <c r="D6" t="n">
-        <v>196471.6075231093</v>
+        <v>213348.4605424331</v>
       </c>
       <c r="E6" t="n">
-        <v>91764.47146712741</v>
+        <v>119754.9004005743</v>
       </c>
       <c r="F6" t="n">
-        <v>249241.7663892316</v>
+        <v>302110.0096216243</v>
       </c>
       <c r="G6" t="n">
-        <v>212610.2010152553</v>
+        <v>302110.0096216243</v>
       </c>
       <c r="H6" t="n">
         <v>302110.0096216241</v>
       </c>
       <c r="I6" t="n">
+        <v>302110.0096216242</v>
+      </c>
+      <c r="J6" t="n">
+        <v>191095.544276634</v>
+      </c>
+      <c r="K6" t="n">
+        <v>249064.1549828518</v>
+      </c>
+      <c r="L6" t="n">
+        <v>292717.7078950019</v>
+      </c>
+      <c r="M6" t="n">
+        <v>149909.8386836366</v>
+      </c>
+      <c r="N6" t="n">
+        <v>302110.0096216244</v>
+      </c>
+      <c r="O6" t="n">
         <v>302110.0096216243</v>
       </c>
-      <c r="J6" t="n">
-        <v>191095.5442766341</v>
-      </c>
-      <c r="K6" t="n">
-        <v>302110.0096216242</v>
-      </c>
-      <c r="L6" t="n">
-        <v>302110.0096216242</v>
-      </c>
-      <c r="M6" t="n">
-        <v>170673.7624642045</v>
-      </c>
-      <c r="N6" t="n">
-        <v>302110.009621624</v>
-      </c>
-      <c r="O6" t="n">
-        <v>249241.7663892316</v>
-      </c>
       <c r="P6" t="n">
-        <v>249241.7663892315</v>
+        <v>302110.0096216244</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452615</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452615</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452615</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452615</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939356</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251571</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394838</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939356</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251569</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939356</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251571</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394838</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>349.4923429712445</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>94.39173300028983</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27436,10 +27438,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27537,13 +27539,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>81.31710626055214</v>
+        <v>68.61278171133571</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>70.10253359130388</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27673,16 +27675,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>113.8601903713113</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>50.87312433228023</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>125.9611629959812</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101.3319306324443</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>370.2548715022042</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>4.332751721448574</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.9863699957345</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28861,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-1.060977512742252e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>52.98895607821112</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>152.0558298092333</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>624.8248713018634</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>175.597690743174</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>52.98895607821123</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>130.5917045986997</v>
       </c>
       <c r="L7" t="n">
-        <v>223.0854642319581</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,13 +35254,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35339,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>44.41372909529071</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452615</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>811.3962159119887</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,13 +35427,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>728.3199979646466</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>951.7201651452615</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>951.7201651452615</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>951.7201651452615</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.7964579216532</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955951</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>168.8387779969848</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>1050.67235666819</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960947</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
@@ -36124,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,22 +36202,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36361,13 +36363,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36434,13 +36436,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>571.1719812251592</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36601,19 +36603,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="O26" t="n">
-        <v>216.3468123274661</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36680,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,13 +36849,13 @@
         <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
-        <v>453.4964435270858</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37005,7 +37007,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165166</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821539</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37400,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>687.6096162327044</v>
@@ -37637,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>327.8732572545618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>185.5322763537708</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452615</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452615</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>926.4397398113956</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>685.7606250949702</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,10 +38189,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165138</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1827512.735907202</v>
+        <v>1826987.55353817</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916855</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
+        <v>33.76104808841092</v>
+      </c>
+      <c r="D2" t="n">
+        <v>421.8693954748355</v>
+      </c>
+      <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D2" t="n">
-        <v>31.5506869772999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>79.94465442204329</v>
-      </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>99.4476420004344</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>5.64492333244486</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.3430720920318</v>
+        <v>30.25776011369434</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>114.3486586083432</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.18431098305165</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>53.33388379268013</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765157</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>166.3197703738368</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1423,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1530,10 +1530,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1587,16 +1587,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>187.5234134555184</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.3321012888059</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1773,19 +1773,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>53.9004557069403</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1824,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>260.6622565498274</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884117</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1858,13 +1858,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1903,16 +1903,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>2.292363805516792</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>128.7778691150968</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>41.77118486549519</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.47678022721453</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4278190159732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>52.51170991984772</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3268,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3319,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3432,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>58.6618829326302</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3505,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>43.4889870101585</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,10 +3720,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738366</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3957,10 +3957,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738366</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3985,7 +3985,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932899</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4146,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>35.34780583514189</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>888.1040799405455</v>
+        <v>1351.042333103999</v>
       </c>
       <c r="C2" t="n">
-        <v>459.5224056778138</v>
+        <v>1316.940264327826</v>
       </c>
       <c r="D2" t="n">
-        <v>427.6530248926624</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,49 +4333,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449918</v>
+        <v>1377.547219208445</v>
       </c>
       <c r="Y2" t="n">
-        <v>910.3632463850493</v>
+        <v>1373.301499548503</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>705.2562847857771</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>705.2562847857771</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>705.2562847857771</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
         <v>604.8041211489747</v>
@@ -4488,52 +4488,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>538.7332355342593</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>958.7861344791625</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1378.455383704944</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="W4" t="n">
-        <v>705.2562847857771</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="X4" t="n">
-        <v>705.2562847857771</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y4" t="n">
-        <v>705.2562847857771</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1786.126818664106</v>
+        <v>574.4223959157541</v>
       </c>
       <c r="C5" t="n">
-        <v>1347.98434584753</v>
+        <v>540.3203271395815</v>
       </c>
       <c r="D5" t="n">
-        <v>912.0745610219742</v>
+        <v>104.410542314026</v>
       </c>
       <c r="E5" t="n">
-        <v>478.2998161802693</v>
+        <v>74.67620151272526</v>
       </c>
       <c r="F5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087174</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>1109.787858087174</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>1109.787858087174</v>
+        <v>485.687074042395</v>
       </c>
       <c r="N5" t="n">
-        <v>1109.787858087174</v>
+        <v>557.7649106726441</v>
       </c>
       <c r="O5" t="n">
-        <v>1733.888642131952</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="P5" t="n">
-        <v>2352.465264720797</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720797</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473854</v>
+        <v>2437.96745565769</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473854</v>
+        <v>2217.900228530728</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473854</v>
+        <v>2217.900228530728</v>
       </c>
       <c r="V5" t="n">
-        <v>2521.619329473854</v>
+        <v>1855.283278464555</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.804278925291</v>
+        <v>1450.427823875588</v>
       </c>
       <c r="X5" t="n">
-        <v>2505.702219545006</v>
+        <v>1031.285360454899</v>
       </c>
       <c r="Y5" t="n">
-        <v>2212.426389149014</v>
+        <v>1000.721966400662</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326461</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947708</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>374.9907115556894</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>548.8324253914317</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>900.9284236664082</v>
+        <v>593.0357356940372</v>
       </c>
       <c r="C7" t="n">
-        <v>728.3667121496331</v>
+        <v>420.4740241772621</v>
       </c>
       <c r="D7" t="n">
-        <v>562.4887193511559</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="E7" t="n">
-        <v>392.7307156018932</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="F7" t="n">
-        <v>216.0236615636494</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="G7" t="n">
-        <v>50.43238658947708</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="H7" t="n">
-        <v>50.43238658947708</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
         <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068796</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748407</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255754</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413398</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.91966063918</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609522</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473854</v>
+        <v>2500.201508179225</v>
       </c>
       <c r="S7" t="n">
-        <v>2521.619329473854</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>2275.739883052309</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1997.306882305414</v>
+        <v>1816.647692308782</v>
       </c>
       <c r="V7" t="n">
-        <v>1710.351374175845</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>1438.324969762136</v>
+        <v>1257.665779765504</v>
       </c>
       <c r="X7" t="n">
-        <v>1192.933215095549</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>1092.747042385395</v>
+        <v>784.8543544130243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>541.4653606347895</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>107.6906157930846</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V10" t="n">
-        <v>1965.089189266357</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5050,25 +5050,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
         <v>4809.322912595856</v>
@@ -5080,13 +5080,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>842.8792965674086</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>842.8792965674086</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
         <v>842.8792965674086</v>
@@ -5235,16 +5235,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.411126173566</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1034.697915286396</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>605.8694973157614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1680.929463568621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2837.977298779172</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136697</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883864</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716114</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731341</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>418.8700686186489</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>242.1630145804051</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5448,40 +5448,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113118</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.2207813389</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309241</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173574</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173574</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.67908147157</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050026</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303131</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173561</v>
+        <v>1750.653604372319</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759853</v>
+        <v>1478.62719995861</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.992967093265</v>
+        <v>1233.235445292023</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407374</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5506,10 +5506,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,13 +5521,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2412.031452783383</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3569.079287993934</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
         <v>3569.079287993934</v>
@@ -5542,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1017.756527079655</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>845.1948155628801</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1209.575145798642</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5761,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423626</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5810,16 +5810,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5834,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1057.146432354979</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>884.5847208382039</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>718.7067280397266</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>548.9487242904638</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>372.24167025222</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1476.384721759858</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1248.965051073966</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -6068,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2517.485965445823</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2239.052964698928</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1952.097456569358</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1680.07105215565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1434.679297489062</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6238,7 +6238,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
         <v>3569.079287993933</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1260.588475859645</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6466,22 +6466,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6639,34 +6639,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309256</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173589</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.50262887896</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176957</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2322.677604605267</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.244603858372</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1757.289095728803</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1068.769857140658</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>896.2081456238831</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>730.3301528254058</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>560.572149076143</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>383.8650950378992</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6891,19 +6891,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2292.381813755403</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>2005.426305625833</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1733.399901212125</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1488.008146545537</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1260.588475859645</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6925,7 +6925,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
@@ -6967,22 +6967,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>982.1554751127505</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>809.5937635959755</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>643.7157707974982</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7250,10 +7250,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>927.0677766831641</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>754.506065166389</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>588.6280723679117</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8700686186489</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2674.992180466348</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2429.112734044803</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2150.679733297909</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1863.724225168339</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W40" t="n">
-        <v>1591.697820754631</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1346.306066088043</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1118.886395402151</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7417,46 +7417,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009659</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236976</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2738.306477413004</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3718.48614398331</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883983</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>639.1929661716232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>473.3149733731459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>303.5569696238832</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
         <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7824,34 +7824,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309254</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173586</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173586</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471582</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050038</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303143</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173573</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759865</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.992967093277</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>52.98895607821112</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>152.0558298092333</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>72.8058955861103</v>
+      </c>
+      <c r="O5" t="n">
+        <v>630.4048323684632</v>
+      </c>
+      <c r="P5" t="n">
         <v>630.4048323684633</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>630.4048323684633</v>
-      </c>
-      <c r="P5" t="n">
-        <v>624.8248713018634</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>175.597690743174</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684634</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045986997</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475602</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,22 +8534,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8698,13 +8698,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1133.488385918382</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8768,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9169,16 +9169,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1050.67235666819</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9716,13 +9716,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>571.1719812251592</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9886,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1133.488385918382</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,25 +10114,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11299,7 +11299,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -11308,13 +11308,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>685.7606250949702</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>30.81337269022691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>114.1599680048298</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>23.42369649844647</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35.15749310933379</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>201.6494670918341</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>29.99283294135611</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>111.4236523045829</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>109.3985407791399</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>114.1599680048248</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>139.5921776627195</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>541366.1916221671</v>
+        <v>541366.1916221674</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>541366.1916221674</v>
+        <v>541366.1916221672</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>541366.1916221674</v>
+        <v>541366.1916221672</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>541366.1916221671</v>
+        <v>541366.1916221672</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>541366.1916221675</v>
+        <v>541366.1916221672</v>
       </c>
     </row>
   </sheetData>
@@ -26322,25 +26322,25 @@
         <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="F2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="G2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="H2" t="n">
-        <v>447828.9465167493</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="I2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="J2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="K2" t="n">
-        <v>447828.9465167497</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="L2" t="n">
         <v>447828.9465167495</v>
@@ -26349,13 +26349,13 @@
         <v>447828.9465167496</v>
       </c>
       <c r="N2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="O2" t="n">
         <v>447828.9465167496</v>
       </c>
       <c r="P2" t="n">
-        <v>447828.9465167497</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501611</v>
+        <v>66587.76789501606</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998282</v>
+        <v>11527.59554998288</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.519159848795436e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877247</v>
+        <v>53045.85463877243</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622358</v>
+        <v>9392.301726622425</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26426,40 +26426,40 @@
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
+        <v>68000.69828933278</v>
+      </c>
+      <c r="F4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="F4" t="n">
-        <v>68000.69828933268</v>
-      </c>
       <c r="G4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="H4" t="n">
         <v>68000.69828933277</v>
       </c>
-      <c r="H4" t="n">
-        <v>68000.69828933279</v>
-      </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933294</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="N4" t="n">
         <v>68000.69828933277</v>
       </c>
       <c r="O4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="P4" t="n">
         <v>68000.69828933281</v>
-      </c>
-      <c r="P4" t="n">
-        <v>68000.69828933282</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800258</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26487,7 +26487,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>153954.3414105827</v>
       </c>
       <c r="D6" t="n">
-        <v>213348.4605424331</v>
+        <v>213348.460542433</v>
       </c>
       <c r="E6" t="n">
-        <v>119754.9004005743</v>
+        <v>119731.6760611919</v>
       </c>
       <c r="F6" t="n">
-        <v>302110.0096216243</v>
+        <v>302086.7852822415</v>
       </c>
       <c r="G6" t="n">
-        <v>302110.0096216243</v>
+        <v>302086.7852822416</v>
       </c>
       <c r="H6" t="n">
-        <v>302110.0096216241</v>
+        <v>302086.7852822417</v>
       </c>
       <c r="I6" t="n">
-        <v>302110.0096216242</v>
+        <v>302086.7852822416</v>
       </c>
       <c r="J6" t="n">
-        <v>191095.544276634</v>
+        <v>191072.3199372515</v>
       </c>
       <c r="K6" t="n">
-        <v>249064.1549828518</v>
+        <v>249040.9306434692</v>
       </c>
       <c r="L6" t="n">
-        <v>292717.7078950019</v>
+        <v>292694.4835556191</v>
       </c>
       <c r="M6" t="n">
-        <v>149909.8386836366</v>
+        <v>149886.614344254</v>
       </c>
       <c r="N6" t="n">
-        <v>302110.0096216244</v>
+        <v>302086.7852822415</v>
       </c>
       <c r="O6" t="n">
-        <v>302110.0096216243</v>
+        <v>302086.7852822416</v>
       </c>
       <c r="P6" t="n">
-        <v>302110.0096216244</v>
+        <v>302086.7852822416</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684634</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26831,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.148949810994295e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.148949810994295e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483591</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939356</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483591</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939356</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.148949810994295e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483591</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939356</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>9.681291502464376</v>
       </c>
       <c r="E2" t="n">
-        <v>349.4923429712445</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.61278171133571</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.7757286248844</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -27605,7 +27605,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>113.8601903713113</v>
+        <v>373.9455023496487</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>49.58670361608739</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>125.9611629959812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>370.2548715022042</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>69.71657238081363</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>102.9863699957345</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-9.660641936314398e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>52.98895607821112</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>152.0558298092333</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>72.8058955861103</v>
+      </c>
+      <c r="O5" t="n">
+        <v>630.4048323684632</v>
+      </c>
+      <c r="P5" t="n">
         <v>630.4048323684633</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>630.4048323684633</v>
-      </c>
-      <c r="P5" t="n">
-        <v>624.8248713018634</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>175.597690743174</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684634</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045986997</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475602</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35418,13 +35418,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1133.488385918382</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35488,7 +35488,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35816,7 +35816,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637955951</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512943</v>
@@ -35889,16 +35889,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1050.67235666819</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36202,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36436,13 +36436,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>571.1719812251592</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36606,10 +36606,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1133.488385918382</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37007,7 +37007,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165166</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821539</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38028,13 +38028,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>685.7606250949702</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38095,7 +38095,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38180,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38192,7 +38192,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165138</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>
